--- a/Data/Assumption/Region_Cost/Region1.xlsx
+++ b/Data/Assumption/Region_Cost/Region1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="3" r:id="rId1"/>
@@ -462,8 +462,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A51"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2418,37 +2418,37 @@
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="E38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="F38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="G38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="H38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="I38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="J38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="K38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="L38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="M38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="N38" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2462,37 +2462,37 @@
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="E39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="F39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="G39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="H39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="I39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="J39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="K39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="L39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="M39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
       <c r="N39" s="3">
-        <v>2640</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3077,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Region_Cost/Region1.xlsx
+++ b/Data/Assumption/Region_Cost/Region1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="3" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2418,37 +2418,37 @@
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="E38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="F38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="G38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="H38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="I38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="J38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="K38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="L38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="N38" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2462,37 +2462,37 @@
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="E39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="F39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="G39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="H39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="I39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="J39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="K39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="L39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="M39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="N39" s="3">
-        <v>4600</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
